--- a/src/files/ingresoDatos.xlsx
+++ b/src/files/ingresoDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAGGAAC-SOPORTE\Documents\GitHub\api-whatsapp-ts-main\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD38BA9D-55F0-4576-BFDE-CAF41BDD937F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEF28CA-A229-4955-886C-48111101B4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B46BB166-6B3C-4214-85F2-BCF05DFD6F00}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Phone</t>
   </si>
@@ -48,7 +48,22 @@
     <t>0987329687</t>
   </si>
   <si>
-    <t>(+593)XXX</t>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>(+593)987329687</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>2387865888</t>
+  </si>
+  <si>
+    <t>7898797979797</t>
+  </si>
+  <si>
+    <t>Gomez</t>
   </si>
 </sst>
 </file>
@@ -401,47 +416,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A32872-2222-4181-A470-B1C363EC0C39}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/files/ingresoDatos.xlsx
+++ b/src/files/ingresoDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAGGAAC-SOPORTE\Documents\GitHub\api-whatsapp-ts-main\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEF28CA-A229-4955-886C-48111101B4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C892E9CD-8994-4450-978A-D26E3668A438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B46BB166-6B3C-4214-85F2-BCF05DFD6F00}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Phone</t>
   </si>
@@ -36,31 +36,10 @@
     <t>Andres</t>
   </si>
   <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>+5930987329687</t>
-  </si>
-  <si>
     <t>0987329687</t>
   </si>
   <si>
     <t>Lastname</t>
-  </si>
-  <si>
-    <t>(+593)987329687</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>2387865888</t>
-  </si>
-  <si>
-    <t>7898797979797</t>
   </si>
   <si>
     <t>Gomez</t>
@@ -416,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A32872-2222-4181-A470-B1C363EC0C39}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,50 +415,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/files/ingresoDatos.xlsx
+++ b/src/files/ingresoDatos.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>PPPPP</v>
+        <v>0987329687</v>
       </c>
       <c r="B2" t="str">
         <v>Andres</v>
@@ -427,18 +427,18 @@
         <v>Gomez</v>
       </c>
       <c r="D2" t="str">
-        <v>Error</v>
+        <v>Correcto</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>PPPPP</v>
+        <v>909329032XX</v>
       </c>
       <c r="B3" t="str">
-        <v>Andres</v>
+        <v>DJIDSA</v>
       </c>
       <c r="C3" t="str">
-        <v>Gomez</v>
+        <v>dsaddsa</v>
       </c>
       <c r="D3" t="str">
         <v>Error</v>
@@ -446,13 +446,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>PPPPP</v>
+        <v>909329032XX</v>
       </c>
       <c r="B4" t="str">
-        <v>Andres</v>
+        <v>dsadas</v>
       </c>
       <c r="C4" t="str">
-        <v>Gomez</v>
+        <v>ewqeqw</v>
       </c>
       <c r="D4" t="str">
         <v>Error</v>
@@ -460,78 +460,22 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>PPPPP</v>
+        <v>909329032XX</v>
       </c>
       <c r="B5" t="str">
-        <v>Andres</v>
+        <v>ewqeqw</v>
       </c>
       <c r="C5" t="str">
-        <v>Gomez</v>
+        <v>ewqeqw</v>
       </c>
       <c r="D5" t="str">
         <v>Error</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>PPPPP</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Andres</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Gomez</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Error</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>PPPPP</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Andres</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Gomez</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Error</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>PPPPP</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Andres</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Gomez</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Error</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>0987329687</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Andres</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Gomez</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Correcto</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
   </ignoredErrors>
 </worksheet>
 </file>